--- a/Projeto/Geração das Amostras/excel/planilha_2.xlsx
+++ b/Projeto/Geração das Amostras/excel/planilha_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>exam_id</t>
   </si>
@@ -28,6 +28,75 @@
   </si>
   <si>
     <t>comentario</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Interferência</t>
+  </si>
+  <si>
+    <t>Possível normalidade, não possível avaliar D1, D3 e aVL</t>
+  </si>
+  <si>
+    <t>Nenhuma</t>
+  </si>
+  <si>
+    <t>RBBB</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Não possível avaliar D2, aVF, aVL e D1</t>
+  </si>
+  <si>
+    <t>Outra</t>
+  </si>
+  <si>
+    <t>Arritmia sinusal</t>
+  </si>
+  <si>
+    <t>Não possível avaliar D1, D3, aVL e V1</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Supradesnivelamento de ST limítrofe em V1 e V2</t>
+  </si>
+  <si>
+    <t>Possível normalidade, mas não pode ser confirmar por não poder avaliar D1, D2 e aVF</t>
+  </si>
+  <si>
+    <t>1dAVB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAV 1° </t>
+  </si>
+  <si>
+    <t>Possível BRE, por S espessado em V1, mas QRS &lt; 120 ms</t>
+  </si>
+  <si>
+    <t>Lesão com supradesnivelamento de ST em parede antero-septal</t>
+  </si>
+  <si>
+    <t>BAV 1° (iPR &gt; 200 ms) + possível sobrecarga ventricular esquerda ( padrão de strain em v6, mas interferência)</t>
+  </si>
+  <si>
+    <t>Supradesnivelamento de ST limítrofe em V2 e V3</t>
+  </si>
+  <si>
+    <t>Lesão com supra de ST em parede antero-septal (v1 -v3)</t>
+  </si>
+  <si>
+    <t>BAV 1°, boderline devido a interferência</t>
   </si>
 </sst>
 </file>
@@ -81,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -89,6 +158,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -330,197 +402,348 @@
       <c r="A2" s="2">
         <v>493505.0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>500915.0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>512801.0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>520158.0</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>526752.0</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>533975.0</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>535632.0</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>575290.0</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>609521.0</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>610046.0</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>611076.0</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>629566.0</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>629570.0</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>647101.0</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>651272.0</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>663808.0</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>688318.0</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>690616.0</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>695323.0</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>705191.0</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>714705.0</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>715952.0</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>723340.0</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>724631.0</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>737139.0</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>741310.0</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>741415.0</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>745309.0</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">

--- a/Projeto/Geração das Amostras/excel/planilha_2.xlsx
+++ b/Projeto/Geração das Amostras/excel/planilha_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
   <si>
     <t>exam_id</t>
   </si>
@@ -96,7 +96,79 @@
     <t>Lesão com supra de ST em parede antero-septal (v1 -v3)</t>
   </si>
   <si>
-    <t>BAV 1°, boderline devido a interferência</t>
+    <t>BAV 1°, borderline devido a interferência</t>
+  </si>
+  <si>
+    <t>Taquicardia supraventricular por reentrada nodal</t>
+  </si>
+  <si>
+    <t>BAV 1°</t>
+  </si>
+  <si>
+    <t>BAV 1° Borderline por iPR = 220 ms</t>
+  </si>
+  <si>
+    <t>Não foi possível avaliar D1 e aVL</t>
+  </si>
+  <si>
+    <t>Não possível avaliar V3, V4, V5 e V6</t>
+  </si>
+  <si>
+    <t>Taquicardia supraventricular por reentrada em via acessória</t>
+  </si>
+  <si>
+    <t>Presença de extrassístole ventricular</t>
+  </si>
+  <si>
+    <t>Não possível avaliar D1, D3 e aVF</t>
+  </si>
+  <si>
+    <t>Arritmia sinusal com extrassístole ventricular</t>
+  </si>
+  <si>
+    <t>LBBB</t>
+  </si>
+  <si>
+    <t>QRS = 120 ms. Associado ao BRE, há lesão com supra de ST de V1-V3 (parede antero-septal)</t>
+  </si>
+  <si>
+    <t>Não possível avaliar D1 e aVL, presenta de supra de ST em V2 e V3.</t>
+  </si>
+  <si>
+    <t>Áres de IAM antigo em V1.</t>
+  </si>
+  <si>
+    <t>Taquicardia supraventricular</t>
+  </si>
+  <si>
+    <t>Borderline para bradicardia sinusal. Presença de extrassístole juncional</t>
+  </si>
+  <si>
+    <t>QRS = 120 ms. Além disso, apresnta possível IAM de tronco de coronária esquerda (Supra de aVR e V1 e infra difuso)</t>
+  </si>
+  <si>
+    <t>Taquicardia por reentrada nodal</t>
+  </si>
+  <si>
+    <t>Presença de extrassístole juncional.</t>
+  </si>
+  <si>
+    <t>Associação possível com arritmia sinusal e extrassístole atrial</t>
+  </si>
+  <si>
+    <t>Presença de alteração secundária da repolarização</t>
+  </si>
+  <si>
+    <t>Arritmia sinusal, borderline devido a interferência</t>
+  </si>
+  <si>
+    <t>Não possível avaliar d1, d2, d3 e avl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presença de extrassístoles juncionais </t>
+  </si>
+  <si>
+    <t>Valor do QRS muito próximo de 120 ms</t>
   </si>
 </sst>
 </file>
@@ -744,202 +816,365 @@
       <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>748170.0</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>748333.0</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>752052.0</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>753050.0</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>753988.0</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>767433.0</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>770722.0</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>786260.0</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>787459.0</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>789242.0</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>795882.0</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>801591.0</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>805832.0</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>806264.0</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>812664.0</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>826380.0</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>829769.0</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>836017.0</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>854142.0</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>871919.0</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>902165.0</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>902635.0</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>902740.0</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>905103.0</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>907979.0</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>916917.0</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>918264.0</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>927554.0</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2">
@@ -952,162 +1187,285 @@
       <c r="A59" s="2">
         <v>944008.0</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>952878.0</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
         <v>957365.0</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
         <v>964759.0</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
         <v>965626.0</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="B63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
         <v>971298.0</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
         <v>982543.0</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
         <v>988219.0</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
         <v>997023.0</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
         <v>1017917.0</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
         <v>1018396.0</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2">
         <v>1033785.0</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2">
         <v>1050254.0</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
         <v>1052961.0</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="B72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2">
         <v>1057859.0</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="B73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2">
         <v>1061241.0</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2">
         <v>1082367.0</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="B75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2">
         <v>1107960.0</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2">
         <v>1121616.0</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2">
         <v>1121716.0</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2">
         <v>1131543.0</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2">
         <v>1132113.0</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2">
         <v>1136131.0</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="2"/>
